--- a/assets/disciplinas/LOQ4059.xlsx
+++ b/assets/disciplinas/LOQ4059.xlsx
@@ -64,7 +64,7 @@
     <t>Semestre ideal:</t>
   </si>
   <si>
-    <t>EQD-8,EQN-10</t>
+    <t>EQD-8,EQN-9</t>
   </si>
   <si>
     <t>Objetivos:</t>

--- a/assets/disciplinas/LOQ4059.xlsx
+++ b/assets/disciplinas/LOQ4059.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Levar ao aluno uma visão relativamente aprofundada sobre a ciência dos polímeros. Apresentar os conceitos fundamentais, os mecanismos envolvidos nas sínteses dos polímeros, os diferentes processos de polimerização e finalmente as propriedades mais marcantes dos materiais obtidos. Mostrar para o aluno a importância do conhecimento destes materiais na sua carreira profissional.</t>
+    <t>5840772 - Amilton Martins dos Santos</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,13 +79,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>5840772 - Amilton Martins dos Santos</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Introdução a polímeros; Mecanismos de polimerização; Técnicas de polimerização; Processos de polimerização; Caracterização de polímeros; Propriedades de polímeros.</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -94,9 +91,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>Introdução a polímeros: História, Conceitos fundamentais, Classificação dos Polímeros, Nomenclatura de polímeros. Mecanismos de polimerização: Definições de poliadição e policondensação, policondensação (poliésteres, poliamidas, policarbonatos, poliuretanos), poliadição (polimerização via radical livre). Técnicas de polimerização (Massa, solução, suspensão, emulsão e miniemulsão). Processos de polimerização (Batelada, batelada alimentada/semi-contínuo, processo contínuo, processo shot). Noções sobre a caracterização de polímeros (GPC/SEC, DSC e TGA). Definição das propriedades mais importantes dos polímeros (Tg e TM, outras propriedades de engenharia).</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -106,32 +100,23 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>2 Provas escritas + Trabalho de conclusão de curso.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>A nota final (NF) será calculada de seguinte maneira: NF = (P1+P2)/2
 O trabalho poderá valer até 2 pontos, que serão somados nas notas da P1 ou da P2.</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>A recuperação será feita por meio de uma prova escrita (PR) e a média de recuperação (MR) calculada pela fórmula MR = (NF+PR)/2.</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>MANO E. B. Introdução a Polímeros. Editora Edgard Blücher Ltda, 1a Ed., São Paulo, 1988; MANO E. B. Polímeros como Materiais de Engenharia. Editora Edgard Blücher Ltda, 1a Ed., São Paulo, 1991
-CANNEVALORO S. V. Ciência dos Polímeros. Editora Artliber  Ltda, 1a Ed., São Paulo, 2004
-COUTINHO F. M. B.; OLIVEIRA C. M. F. Reações de Polimerização em Cadeia. Editora Interciência Ltda, 1ª Ed., Rio de Janeiro, 2006
-BILMEYER Jr., F. W. Textbook of Polymer Science. John Wiley &amp; Sons, 3rd Ed., New York, 1984
-ODIAN G. Principles of Polymerization, John Wiley &amp; Sons, 3rd Ed., New York, 1991
-RODRIGUEZ, FERDINAND. Princípios de Sistemas de Polímeros, Editorial El Manual Moderno S.A., 1st Ed., México, D.F., 1984
-VAN KREVELEN, D.W., HOFTYZER, P. J. Properties of polymers: correlation with chemical structure. Elsevier, 1st Ed., Amsterdam, 1972.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -494,7 +479,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -619,106 +604,98 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="2" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
-      <c r="A17" s="1" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>28</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" customHeight="1">
-      <c r="B24" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>38</v>
+      <c r="C23" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/assets/disciplinas/LOQ4059.xlsx
+++ b/assets/disciplinas/LOQ4059.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,19 +70,22 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Levar ao aluno uma visão relativamente aprofundada sobre a ciência dos polímeros. Apresentar os conceitos fundamentais, os mecanismos envolvidos nas sínteses dos polímeros, os diferentes processos de polimerização e finalmente as propriedades mais marcantes dos materiais obtidos. Mostrar para o aluno a importância do conhecimento destes materiais na sua carreira profissional.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>5840772 - Amilton Martins dos Santos</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>Introdução a polímeros; Mecanismos de polimerização; Técnicas de polimerização; Processos de polimerização; Caracterização de polímeros; Propriedades de polímeros.</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -91,6 +94,9 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>Introdução a polímeros: História, Conceitos fundamentais, Classificação dos Polímeros, Nomenclatura de polímeros. Mecanismos de polimerização: Definições de poliadição e policondensação, policondensação (poliésteres, poliamidas, policarbonatos, poliuretanos), poliadição (polimerização via radical livre). Técnicas de polimerização (Massa, solução, suspensão, emulsão e miniemulsão). Processos de polimerização (Batelada, batelada alimentada/semi-contínuo, processo contínuo, processo shot). Noções sobre a caracterização de polímeros (GPC/SEC, DSC e TGA). Definição das propriedades mais importantes dos polímeros (Tg e TM, outras propriedades de engenharia).</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -100,23 +106,32 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>2 Provas escritas + Trabalho de conclusão de curso.</t>
+  </si>
+  <si>
     <t>Critério:</t>
-  </si>
-  <si>
-    <t>2 Provas escritas + Trabalho de conclusão de curso.</t>
-  </si>
-  <si>
-    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>A nota final (NF) será calculada de seguinte maneira: NF = (P1+P2)/2
 O trabalho poderá valer até 2 pontos, que serão somados nas notas da P1 ou da P2.</t>
   </si>
   <si>
+    <t>Norma de recuperação:</t>
+  </si>
+  <si>
+    <t>A recuperação será feita por meio de uma prova escrita (PR) e a média de recuperação (MR) calculada pela fórmula MR = (NF+PR)/2.</t>
+  </si>
+  <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>A recuperação será feita por meio de uma prova escrita (PR) e a média de recuperação (MR) calculada pela fórmula MR = (NF+PR)/2.</t>
+    <t>MANO E. B. Introdução a Polímeros. Editora Edgard Blücher Ltda, 1a Ed., São Paulo, 1988; MANO E. B. Polímeros como Materiais de Engenharia. Editora Edgard Blücher Ltda, 1a Ed., São Paulo, 1991
+CANNEVALORO S. V. Ciência dos Polímeros. Editora Artliber  Ltda, 1a Ed., São Paulo, 2004
+COUTINHO F. M. B.; OLIVEIRA C. M. F. Reações de Polimerização em Cadeia. Editora Interciência Ltda, 1ª Ed., Rio de Janeiro, 2006
+BILMEYER Jr., F. W. Textbook of Polymer Science. John Wiley &amp; Sons, 3rd Ed., New York, 1984
+ODIAN G. Principles of Polymerization, John Wiley &amp; Sons, 3rd Ed., New York, 1991
+RODRIGUEZ, FERDINAND. Princípios de Sistemas de Polímeros, Editorial El Manual Moderno S.A., 1st Ed., México, D.F., 1984
+VAN KREVELEN, D.W., HOFTYZER, P. J. Properties of polymers: correlation with chemical structure. Elsevier, 1st Ed., Amsterdam, 1972.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -479,13 +494,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -604,98 +619,106 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="B16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
-      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>35</v>
+      <c r="B22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30" customHeight="1">
+      <c r="B24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
